--- a/public_listas/ListaImsa_ULTIMA.xlsx
+++ b/public_listas/ListaImsa_ULTIMA.xlsx
@@ -18880,7 +18880,7 @@
         </is>
       </c>
       <c r="B1852" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1853">

--- a/public_listas/ListaImsa_ULTIMA.xlsx
+++ b/public_listas/ListaImsa_ULTIMA.xlsx
@@ -11685,7 +11685,7 @@
         </is>
       </c>
       <c r="B1128" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1129">
